--- a/assets/template/mpr/sd.xlsx
+++ b/assets/template/mpr/sd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0a9dfc00290ff842/MAC/project/Darbi/E-learning/mpr_template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webserv\xampp_74\htdocs\rpt.elearning\assets\template\mpr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{855C7E47-0B30-4E97-B77B-4FE30ECBD47F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FA65C392-13BF-294B-898F-7985611C78DC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9163BE-9760-4896-B58F-C6C94F33AB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31320" yWindow="540" windowWidth="28800" windowHeight="16000" xr2:uid="{40BE889D-CC15-4849-B336-522AC828C246}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{40BE889D-CC15-4849-B336-522AC828C246}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>No.</t>
   </si>
@@ -91,6 +82,15 @@
   </si>
   <si>
     <t>SISDA</t>
+  </si>
+  <si>
+    <t>BAHAN AJAR English</t>
+  </si>
+  <si>
+    <t>PENUGASAN AWAL English</t>
+  </si>
+  <si>
+    <t>FORMATIF English</t>
   </si>
 </sst>
 </file>
@@ -150,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -199,11 +199,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -241,7 +256,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -558,15 +603,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508ED2A1-F2DF-489C-AD0D-5BC474E68E36}">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:AA220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="24" max="25" width="7.6640625" style="20" customWidth="1"/>
+    <col min="26" max="26" width="6" style="20" customWidth="1"/>
+    <col min="27" max="27" width="7.33203125" style="20" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="36" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,8 +686,20 @@
       <c r="W1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -707,8 +769,20 @@
       <c r="W2" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X2" s="14">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="14">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="14">
+        <v>26</v>
+      </c>
+      <c r="AA2" s="14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
@@ -731,6 +805,1312 @@
       <c r="U3" s="8"/>
       <c r="V3" s="12"/>
       <c r="W3" s="13"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="X4" s="15"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="X5" s="15"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="X6" s="15"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="X7" s="15"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="X8" s="15"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="X9" s="15"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="X10" s="15"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="X11" s="15"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="X12" s="15"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="X13" s="15"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="X14" s="15"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="X15" s="15"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="X16" s="15"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+    </row>
+    <row r="17" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X17" s="15"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+    </row>
+    <row r="18" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X18" s="15"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+    </row>
+    <row r="19" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X19" s="15"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+    </row>
+    <row r="20" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X20" s="15"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+    </row>
+    <row r="21" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X21" s="15"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+    </row>
+    <row r="22" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+    </row>
+    <row r="23" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+    </row>
+    <row r="24" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+    </row>
+    <row r="25" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+    </row>
+    <row r="26" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+    </row>
+    <row r="27" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+    </row>
+    <row r="28" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+    </row>
+    <row r="29" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+    </row>
+    <row r="30" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X30" s="18"/>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+    </row>
+    <row r="31" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X31" s="18"/>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
+    </row>
+    <row r="32" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X32" s="18"/>
+      <c r="Y32" s="18"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="19"/>
+    </row>
+    <row r="33" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X33" s="18"/>
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="19"/>
+      <c r="AA33" s="19"/>
+    </row>
+    <row r="34" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X34" s="18"/>
+      <c r="Y34" s="18"/>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="19"/>
+    </row>
+    <row r="35" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X35" s="18"/>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="19"/>
+      <c r="AA35" s="19"/>
+    </row>
+    <row r="36" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X36" s="18"/>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="19"/>
+      <c r="AA36" s="19"/>
+    </row>
+    <row r="37" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X37" s="18"/>
+      <c r="Y37" s="18"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="19"/>
+    </row>
+    <row r="38" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X38" s="18"/>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="19"/>
+    </row>
+    <row r="39" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X39" s="18"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="19"/>
+      <c r="AA39" s="19"/>
+    </row>
+    <row r="40" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X40" s="18"/>
+      <c r="Y40" s="18"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="19"/>
+    </row>
+    <row r="41" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X41" s="18"/>
+      <c r="Y41" s="18"/>
+      <c r="Z41" s="19"/>
+      <c r="AA41" s="19"/>
+    </row>
+    <row r="42" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X42" s="18"/>
+      <c r="Y42" s="18"/>
+      <c r="Z42" s="19"/>
+      <c r="AA42" s="19"/>
+    </row>
+    <row r="43" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X43" s="18"/>
+      <c r="Y43" s="18"/>
+      <c r="Z43" s="19"/>
+      <c r="AA43" s="19"/>
+    </row>
+    <row r="44" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X44" s="18"/>
+      <c r="Y44" s="18"/>
+      <c r="Z44" s="19"/>
+      <c r="AA44" s="19"/>
+    </row>
+    <row r="45" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X45" s="18"/>
+      <c r="Y45" s="18"/>
+      <c r="Z45" s="19"/>
+      <c r="AA45" s="19"/>
+    </row>
+    <row r="46" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X46" s="18"/>
+      <c r="Y46" s="18"/>
+      <c r="Z46" s="19"/>
+      <c r="AA46" s="19"/>
+    </row>
+    <row r="47" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X47" s="18"/>
+      <c r="Y47" s="18"/>
+      <c r="Z47" s="19"/>
+      <c r="AA47" s="19"/>
+    </row>
+    <row r="48" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X48" s="18"/>
+      <c r="Y48" s="18"/>
+      <c r="Z48" s="19"/>
+      <c r="AA48" s="19"/>
+    </row>
+    <row r="49" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X49" s="18"/>
+      <c r="Y49" s="18"/>
+      <c r="Z49" s="19"/>
+      <c r="AA49" s="19"/>
+    </row>
+    <row r="50" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X50" s="18"/>
+      <c r="Y50" s="18"/>
+      <c r="Z50" s="19"/>
+      <c r="AA50" s="19"/>
+    </row>
+    <row r="51" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X51" s="18"/>
+      <c r="Y51" s="18"/>
+      <c r="Z51" s="19"/>
+      <c r="AA51" s="19"/>
+    </row>
+    <row r="52" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X52" s="18"/>
+      <c r="Y52" s="18"/>
+      <c r="Z52" s="19"/>
+      <c r="AA52" s="19"/>
+    </row>
+    <row r="53" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X53" s="18"/>
+      <c r="Y53" s="18"/>
+      <c r="Z53" s="19"/>
+      <c r="AA53" s="19"/>
+    </row>
+    <row r="54" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X54" s="18"/>
+      <c r="Y54" s="18"/>
+      <c r="Z54" s="19"/>
+      <c r="AA54" s="19"/>
+    </row>
+    <row r="55" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X55" s="18"/>
+      <c r="Y55" s="18"/>
+      <c r="Z55" s="19"/>
+      <c r="AA55" s="19"/>
+    </row>
+    <row r="56" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X56" s="18"/>
+      <c r="Y56" s="18"/>
+      <c r="Z56" s="19"/>
+      <c r="AA56" s="19"/>
+    </row>
+    <row r="57" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X57" s="18"/>
+      <c r="Y57" s="18"/>
+      <c r="Z57" s="19"/>
+      <c r="AA57" s="19"/>
+    </row>
+    <row r="58" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X58" s="18"/>
+      <c r="Y58" s="18"/>
+      <c r="Z58" s="19"/>
+      <c r="AA58" s="19"/>
+    </row>
+    <row r="59" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X59" s="18"/>
+      <c r="Y59" s="18"/>
+      <c r="Z59" s="19"/>
+      <c r="AA59" s="19"/>
+    </row>
+    <row r="60" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X60" s="18"/>
+      <c r="Y60" s="18"/>
+      <c r="Z60" s="19"/>
+      <c r="AA60" s="19"/>
+    </row>
+    <row r="61" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X61" s="18"/>
+      <c r="Y61" s="18"/>
+      <c r="Z61" s="19"/>
+      <c r="AA61" s="19"/>
+    </row>
+    <row r="62" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X62" s="18"/>
+      <c r="Y62" s="18"/>
+      <c r="Z62" s="19"/>
+      <c r="AA62" s="19"/>
+    </row>
+    <row r="63" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X63" s="18"/>
+      <c r="Y63" s="18"/>
+      <c r="Z63" s="19"/>
+      <c r="AA63" s="19"/>
+    </row>
+    <row r="64" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X64" s="18"/>
+      <c r="Y64" s="18"/>
+      <c r="Z64" s="19"/>
+      <c r="AA64" s="19"/>
+    </row>
+    <row r="65" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X65" s="18"/>
+      <c r="Y65" s="18"/>
+      <c r="Z65" s="19"/>
+      <c r="AA65" s="19"/>
+    </row>
+    <row r="66" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X66" s="18"/>
+      <c r="Y66" s="18"/>
+      <c r="Z66" s="19"/>
+      <c r="AA66" s="19"/>
+    </row>
+    <row r="67" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X67" s="18"/>
+      <c r="Y67" s="18"/>
+      <c r="Z67" s="19"/>
+      <c r="AA67" s="19"/>
+    </row>
+    <row r="68" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X68" s="18"/>
+      <c r="Y68" s="18"/>
+      <c r="Z68" s="19"/>
+      <c r="AA68" s="19"/>
+    </row>
+    <row r="69" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X69" s="18"/>
+      <c r="Y69" s="18"/>
+      <c r="Z69" s="19"/>
+      <c r="AA69" s="19"/>
+    </row>
+    <row r="70" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X70" s="18"/>
+      <c r="Y70" s="18"/>
+      <c r="Z70" s="19"/>
+      <c r="AA70" s="19"/>
+    </row>
+    <row r="71" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X71" s="18"/>
+      <c r="Y71" s="18"/>
+      <c r="Z71" s="19"/>
+      <c r="AA71" s="19"/>
+    </row>
+    <row r="72" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X72" s="18"/>
+      <c r="Y72" s="18"/>
+      <c r="Z72" s="19"/>
+      <c r="AA72" s="19"/>
+    </row>
+    <row r="73" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X73" s="18"/>
+      <c r="Y73" s="18"/>
+      <c r="Z73" s="19"/>
+      <c r="AA73" s="19"/>
+    </row>
+    <row r="74" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X74" s="18"/>
+      <c r="Y74" s="18"/>
+      <c r="Z74" s="19"/>
+      <c r="AA74" s="19"/>
+    </row>
+    <row r="75" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X75" s="18"/>
+      <c r="Y75" s="18"/>
+      <c r="Z75" s="19"/>
+      <c r="AA75" s="19"/>
+    </row>
+    <row r="76" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X76" s="18"/>
+      <c r="Y76" s="18"/>
+      <c r="Z76" s="19"/>
+      <c r="AA76" s="19"/>
+    </row>
+    <row r="77" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X77" s="18"/>
+      <c r="Y77" s="18"/>
+      <c r="Z77" s="19"/>
+      <c r="AA77" s="19"/>
+    </row>
+    <row r="78" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X78" s="18"/>
+      <c r="Y78" s="18"/>
+      <c r="Z78" s="19"/>
+      <c r="AA78" s="19"/>
+    </row>
+    <row r="79" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X79" s="18"/>
+      <c r="Y79" s="18"/>
+      <c r="Z79" s="19"/>
+      <c r="AA79" s="19"/>
+    </row>
+    <row r="80" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X80" s="18"/>
+      <c r="Y80" s="18"/>
+      <c r="Z80" s="19"/>
+      <c r="AA80" s="19"/>
+    </row>
+    <row r="81" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X81" s="18"/>
+      <c r="Y81" s="18"/>
+      <c r="Z81" s="19"/>
+      <c r="AA81" s="19"/>
+    </row>
+    <row r="82" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X82" s="18"/>
+      <c r="Y82" s="18"/>
+      <c r="Z82" s="19"/>
+      <c r="AA82" s="19"/>
+    </row>
+    <row r="83" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X83" s="18"/>
+      <c r="Y83" s="18"/>
+      <c r="Z83" s="19"/>
+      <c r="AA83" s="19"/>
+    </row>
+    <row r="84" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X84" s="18"/>
+      <c r="Y84" s="18"/>
+      <c r="Z84" s="19"/>
+      <c r="AA84" s="19"/>
+    </row>
+    <row r="85" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X85" s="18"/>
+      <c r="Y85" s="18"/>
+      <c r="Z85" s="19"/>
+      <c r="AA85" s="19"/>
+    </row>
+    <row r="86" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X86" s="18"/>
+      <c r="Y86" s="18"/>
+      <c r="Z86" s="19"/>
+      <c r="AA86" s="19"/>
+    </row>
+    <row r="87" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X87" s="18"/>
+      <c r="Y87" s="18"/>
+      <c r="Z87" s="19"/>
+      <c r="AA87" s="19"/>
+    </row>
+    <row r="88" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X88" s="18"/>
+      <c r="Y88" s="18"/>
+      <c r="Z88" s="19"/>
+      <c r="AA88" s="19"/>
+    </row>
+    <row r="89" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X89" s="18"/>
+      <c r="Y89" s="18"/>
+      <c r="Z89" s="19"/>
+      <c r="AA89" s="19"/>
+    </row>
+    <row r="90" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X90" s="18"/>
+      <c r="Y90" s="18"/>
+      <c r="Z90" s="19"/>
+      <c r="AA90" s="19"/>
+    </row>
+    <row r="91" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X91" s="18"/>
+      <c r="Y91" s="18"/>
+      <c r="Z91" s="19"/>
+      <c r="AA91" s="19"/>
+    </row>
+    <row r="92" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X92" s="18"/>
+      <c r="Y92" s="18"/>
+      <c r="Z92" s="19"/>
+      <c r="AA92" s="19"/>
+    </row>
+    <row r="93" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X93" s="18"/>
+      <c r="Y93" s="18"/>
+      <c r="Z93" s="19"/>
+      <c r="AA93" s="19"/>
+    </row>
+    <row r="94" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X94" s="18"/>
+      <c r="Y94" s="18"/>
+      <c r="Z94" s="19"/>
+      <c r="AA94" s="19"/>
+    </row>
+    <row r="95" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X95" s="18"/>
+      <c r="Y95" s="18"/>
+      <c r="Z95" s="19"/>
+      <c r="AA95" s="19"/>
+    </row>
+    <row r="96" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X96" s="18"/>
+      <c r="Y96" s="18"/>
+      <c r="Z96" s="19"/>
+      <c r="AA96" s="19"/>
+    </row>
+    <row r="97" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X97" s="18"/>
+      <c r="Y97" s="18"/>
+      <c r="Z97" s="19"/>
+      <c r="AA97" s="19"/>
+    </row>
+    <row r="98" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X98" s="18"/>
+      <c r="Y98" s="18"/>
+      <c r="Z98" s="19"/>
+      <c r="AA98" s="19"/>
+    </row>
+    <row r="99" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X99" s="18"/>
+      <c r="Y99" s="18"/>
+      <c r="Z99" s="19"/>
+      <c r="AA99" s="19"/>
+    </row>
+    <row r="100" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X100" s="18"/>
+      <c r="Y100" s="18"/>
+      <c r="Z100" s="19"/>
+      <c r="AA100" s="19"/>
+    </row>
+    <row r="101" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X101" s="18"/>
+      <c r="Y101" s="18"/>
+      <c r="Z101" s="19"/>
+      <c r="AA101" s="19"/>
+    </row>
+    <row r="102" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X102" s="18"/>
+      <c r="Y102" s="18"/>
+      <c r="Z102" s="19"/>
+      <c r="AA102" s="19"/>
+    </row>
+    <row r="103" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X103" s="18"/>
+      <c r="Y103" s="18"/>
+      <c r="Z103" s="19"/>
+      <c r="AA103" s="19"/>
+    </row>
+    <row r="104" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X104" s="18"/>
+      <c r="Y104" s="18"/>
+      <c r="Z104" s="19"/>
+      <c r="AA104" s="19"/>
+    </row>
+    <row r="105" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X105" s="18"/>
+      <c r="Y105" s="18"/>
+      <c r="Z105" s="19"/>
+      <c r="AA105" s="19"/>
+    </row>
+    <row r="106" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X106" s="18"/>
+      <c r="Y106" s="18"/>
+      <c r="Z106" s="19"/>
+      <c r="AA106" s="19"/>
+    </row>
+    <row r="107" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X107" s="18"/>
+      <c r="Y107" s="18"/>
+      <c r="Z107" s="19"/>
+      <c r="AA107" s="19"/>
+    </row>
+    <row r="108" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X108" s="18"/>
+      <c r="Y108" s="18"/>
+      <c r="Z108" s="19"/>
+      <c r="AA108" s="19"/>
+    </row>
+    <row r="109" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X109" s="18"/>
+      <c r="Y109" s="18"/>
+      <c r="Z109" s="19"/>
+      <c r="AA109" s="19"/>
+    </row>
+    <row r="110" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X110" s="18"/>
+      <c r="Y110" s="18"/>
+      <c r="Z110" s="19"/>
+      <c r="AA110" s="19"/>
+    </row>
+    <row r="111" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X111" s="18"/>
+      <c r="Y111" s="18"/>
+      <c r="Z111" s="19"/>
+      <c r="AA111" s="19"/>
+    </row>
+    <row r="112" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X112" s="18"/>
+      <c r="Y112" s="18"/>
+      <c r="Z112" s="19"/>
+      <c r="AA112" s="19"/>
+    </row>
+    <row r="113" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X113" s="18"/>
+      <c r="Y113" s="18"/>
+      <c r="Z113" s="19"/>
+      <c r="AA113" s="19"/>
+    </row>
+    <row r="114" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X114" s="18"/>
+      <c r="Y114" s="18"/>
+      <c r="Z114" s="19"/>
+      <c r="AA114" s="19"/>
+    </row>
+    <row r="115" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X115" s="18"/>
+      <c r="Y115" s="18"/>
+      <c r="Z115" s="19"/>
+      <c r="AA115" s="19"/>
+    </row>
+    <row r="116" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X116" s="18"/>
+      <c r="Y116" s="18"/>
+      <c r="Z116" s="19"/>
+      <c r="AA116" s="19"/>
+    </row>
+    <row r="117" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X117" s="18"/>
+      <c r="Y117" s="18"/>
+      <c r="Z117" s="19"/>
+      <c r="AA117" s="19"/>
+    </row>
+    <row r="118" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X118" s="18"/>
+      <c r="Y118" s="18"/>
+      <c r="Z118" s="19"/>
+      <c r="AA118" s="19"/>
+    </row>
+    <row r="119" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X119" s="18"/>
+      <c r="Y119" s="18"/>
+      <c r="Z119" s="19"/>
+      <c r="AA119" s="19"/>
+    </row>
+    <row r="120" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X120" s="18"/>
+      <c r="Y120" s="18"/>
+      <c r="Z120" s="19"/>
+      <c r="AA120" s="19"/>
+    </row>
+    <row r="121" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X121" s="18"/>
+      <c r="Y121" s="18"/>
+      <c r="Z121" s="19"/>
+      <c r="AA121" s="19"/>
+    </row>
+    <row r="122" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X122" s="18"/>
+      <c r="Y122" s="18"/>
+      <c r="Z122" s="19"/>
+      <c r="AA122" s="19"/>
+    </row>
+    <row r="123" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X123" s="18"/>
+      <c r="Y123" s="18"/>
+      <c r="Z123" s="19"/>
+      <c r="AA123" s="19"/>
+    </row>
+    <row r="124" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X124" s="18"/>
+      <c r="Y124" s="18"/>
+      <c r="Z124" s="19"/>
+      <c r="AA124" s="19"/>
+    </row>
+    <row r="125" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X125" s="18"/>
+      <c r="Y125" s="18"/>
+      <c r="Z125" s="19"/>
+      <c r="AA125" s="19"/>
+    </row>
+    <row r="126" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X126" s="18"/>
+      <c r="Y126" s="18"/>
+      <c r="Z126" s="19"/>
+      <c r="AA126" s="19"/>
+    </row>
+    <row r="127" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X127" s="18"/>
+      <c r="Y127" s="18"/>
+      <c r="Z127" s="19"/>
+      <c r="AA127" s="19"/>
+    </row>
+    <row r="128" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X128" s="18"/>
+      <c r="Y128" s="18"/>
+      <c r="Z128" s="19"/>
+      <c r="AA128" s="19"/>
+    </row>
+    <row r="129" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X129" s="18"/>
+      <c r="Y129" s="18"/>
+      <c r="Z129" s="19"/>
+      <c r="AA129" s="19"/>
+    </row>
+    <row r="130" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X130" s="18"/>
+      <c r="Y130" s="18"/>
+      <c r="Z130" s="19"/>
+      <c r="AA130" s="19"/>
+    </row>
+    <row r="131" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X131" s="18"/>
+      <c r="Y131" s="18"/>
+      <c r="Z131" s="19"/>
+      <c r="AA131" s="19"/>
+    </row>
+    <row r="132" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X132" s="18"/>
+      <c r="Y132" s="18"/>
+      <c r="Z132" s="19"/>
+      <c r="AA132" s="19"/>
+    </row>
+    <row r="133" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X133" s="18"/>
+      <c r="Y133" s="18"/>
+      <c r="Z133" s="19"/>
+      <c r="AA133" s="19"/>
+    </row>
+    <row r="134" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X134" s="18"/>
+      <c r="Y134" s="18"/>
+      <c r="Z134" s="19"/>
+      <c r="AA134" s="19"/>
+    </row>
+    <row r="135" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X135" s="18"/>
+      <c r="Y135" s="18"/>
+      <c r="Z135" s="19"/>
+      <c r="AA135" s="19"/>
+    </row>
+    <row r="136" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X136" s="18"/>
+      <c r="Y136" s="18"/>
+      <c r="Z136" s="19"/>
+      <c r="AA136" s="19"/>
+    </row>
+    <row r="137" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X137" s="18"/>
+      <c r="Y137" s="18"/>
+      <c r="Z137" s="19"/>
+      <c r="AA137" s="19"/>
+    </row>
+    <row r="138" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X138" s="18"/>
+      <c r="Y138" s="18"/>
+      <c r="Z138" s="19"/>
+      <c r="AA138" s="19"/>
+    </row>
+    <row r="139" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X139" s="18"/>
+      <c r="Y139" s="18"/>
+      <c r="Z139" s="19"/>
+      <c r="AA139" s="19"/>
+    </row>
+    <row r="140" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X140" s="18"/>
+      <c r="Y140" s="18"/>
+      <c r="Z140" s="19"/>
+      <c r="AA140" s="19"/>
+    </row>
+    <row r="141" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X141" s="18"/>
+      <c r="Y141" s="18"/>
+      <c r="Z141" s="19"/>
+      <c r="AA141" s="19"/>
+    </row>
+    <row r="142" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X142" s="18"/>
+      <c r="Y142" s="18"/>
+      <c r="Z142" s="19"/>
+      <c r="AA142" s="19"/>
+    </row>
+    <row r="143" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X143" s="18"/>
+      <c r="Y143" s="18"/>
+      <c r="Z143" s="19"/>
+      <c r="AA143" s="19"/>
+    </row>
+    <row r="144" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X144" s="18"/>
+      <c r="Y144" s="18"/>
+      <c r="Z144" s="19"/>
+      <c r="AA144" s="19"/>
+    </row>
+    <row r="145" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X145" s="18"/>
+      <c r="Y145" s="18"/>
+      <c r="Z145" s="19"/>
+      <c r="AA145" s="19"/>
+    </row>
+    <row r="146" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X146" s="18"/>
+      <c r="Y146" s="18"/>
+      <c r="Z146" s="19"/>
+      <c r="AA146" s="19"/>
+    </row>
+    <row r="147" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X147" s="18"/>
+      <c r="Y147" s="18"/>
+      <c r="Z147" s="19"/>
+      <c r="AA147" s="19"/>
+    </row>
+    <row r="148" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X148" s="18"/>
+      <c r="Y148" s="18"/>
+      <c r="Z148" s="19"/>
+      <c r="AA148" s="19"/>
+    </row>
+    <row r="149" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X149" s="18"/>
+      <c r="Y149" s="18"/>
+      <c r="Z149" s="19"/>
+      <c r="AA149" s="19"/>
+    </row>
+    <row r="150" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X150" s="18"/>
+      <c r="Y150" s="18"/>
+      <c r="Z150" s="19"/>
+      <c r="AA150" s="19"/>
+    </row>
+    <row r="151" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X151" s="18"/>
+      <c r="Y151" s="18"/>
+      <c r="Z151" s="19"/>
+      <c r="AA151" s="19"/>
+    </row>
+    <row r="152" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X152" s="18"/>
+      <c r="Y152" s="18"/>
+      <c r="Z152" s="19"/>
+      <c r="AA152" s="19"/>
+    </row>
+    <row r="153" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X153" s="18"/>
+      <c r="Y153" s="18"/>
+      <c r="Z153" s="19"/>
+      <c r="AA153" s="19"/>
+    </row>
+    <row r="154" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X154" s="18"/>
+      <c r="Y154" s="18"/>
+      <c r="Z154" s="19"/>
+      <c r="AA154" s="19"/>
+    </row>
+    <row r="155" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X155" s="18"/>
+      <c r="Y155" s="18"/>
+      <c r="Z155" s="19"/>
+      <c r="AA155" s="19"/>
+    </row>
+    <row r="156" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X156" s="18"/>
+      <c r="Y156" s="18"/>
+      <c r="Z156" s="19"/>
+      <c r="AA156" s="19"/>
+    </row>
+    <row r="157" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X157" s="18"/>
+      <c r="Y157" s="18"/>
+      <c r="Z157" s="19"/>
+      <c r="AA157" s="19"/>
+    </row>
+    <row r="158" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X158" s="18"/>
+      <c r="Y158" s="18"/>
+      <c r="Z158" s="19"/>
+      <c r="AA158" s="19"/>
+    </row>
+    <row r="159" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X159" s="18"/>
+      <c r="Y159" s="18"/>
+      <c r="Z159" s="19"/>
+      <c r="AA159" s="19"/>
+    </row>
+    <row r="160" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X160" s="18"/>
+      <c r="Y160" s="18"/>
+      <c r="Z160" s="19"/>
+      <c r="AA160" s="19"/>
+    </row>
+    <row r="161" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X161" s="18"/>
+      <c r="Y161" s="18"/>
+      <c r="Z161" s="19"/>
+      <c r="AA161" s="19"/>
+    </row>
+    <row r="162" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X162" s="18"/>
+      <c r="Y162" s="18"/>
+      <c r="Z162" s="19"/>
+      <c r="AA162" s="19"/>
+    </row>
+    <row r="163" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X163" s="18"/>
+      <c r="Y163" s="18"/>
+      <c r="Z163" s="19"/>
+      <c r="AA163" s="19"/>
+    </row>
+    <row r="164" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X164" s="18"/>
+      <c r="Y164" s="18"/>
+      <c r="Z164" s="19"/>
+      <c r="AA164" s="19"/>
+    </row>
+    <row r="165" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X165" s="18"/>
+      <c r="Y165" s="18"/>
+      <c r="Z165" s="19"/>
+      <c r="AA165" s="19"/>
+    </row>
+    <row r="166" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X166" s="18"/>
+      <c r="Y166" s="18"/>
+      <c r="Z166" s="19"/>
+      <c r="AA166" s="19"/>
+    </row>
+    <row r="167" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X167" s="18"/>
+      <c r="Y167" s="18"/>
+      <c r="Z167" s="19"/>
+      <c r="AA167" s="19"/>
+    </row>
+    <row r="168" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X168" s="18"/>
+      <c r="Y168" s="18"/>
+      <c r="Z168" s="19"/>
+      <c r="AA168" s="19"/>
+    </row>
+    <row r="169" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X169" s="18"/>
+      <c r="Y169" s="18"/>
+      <c r="Z169" s="19"/>
+      <c r="AA169" s="19"/>
+    </row>
+    <row r="170" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X170" s="18"/>
+      <c r="Y170" s="18"/>
+      <c r="Z170" s="19"/>
+      <c r="AA170" s="19"/>
+    </row>
+    <row r="171" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X171" s="18"/>
+      <c r="Y171" s="18"/>
+      <c r="Z171" s="19"/>
+      <c r="AA171" s="19"/>
+    </row>
+    <row r="172" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X172" s="18"/>
+      <c r="Y172" s="18"/>
+      <c r="Z172" s="19"/>
+      <c r="AA172" s="19"/>
+    </row>
+    <row r="173" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X173" s="18"/>
+      <c r="Y173" s="18"/>
+      <c r="Z173" s="19"/>
+      <c r="AA173" s="19"/>
+    </row>
+    <row r="174" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X174" s="18"/>
+      <c r="Y174" s="18"/>
+      <c r="Z174" s="19"/>
+      <c r="AA174" s="19"/>
+    </row>
+    <row r="175" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X175" s="18"/>
+      <c r="Y175" s="18"/>
+      <c r="Z175" s="19"/>
+      <c r="AA175" s="19"/>
+    </row>
+    <row r="176" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X176" s="18"/>
+      <c r="Y176" s="18"/>
+      <c r="Z176" s="19"/>
+      <c r="AA176" s="19"/>
+    </row>
+    <row r="177" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X177" s="18"/>
+      <c r="Y177" s="18"/>
+      <c r="Z177" s="19"/>
+      <c r="AA177" s="19"/>
+    </row>
+    <row r="178" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X178" s="18"/>
+      <c r="Y178" s="18"/>
+      <c r="Z178" s="19"/>
+      <c r="AA178" s="19"/>
+    </row>
+    <row r="179" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X179" s="18"/>
+      <c r="Y179" s="18"/>
+      <c r="Z179" s="19"/>
+      <c r="AA179" s="19"/>
+    </row>
+    <row r="180" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X180" s="18"/>
+      <c r="Y180" s="18"/>
+      <c r="Z180" s="19"/>
+      <c r="AA180" s="19"/>
+    </row>
+    <row r="181" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X181" s="18"/>
+      <c r="Y181" s="18"/>
+      <c r="Z181" s="19"/>
+      <c r="AA181" s="19"/>
+    </row>
+    <row r="182" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X182" s="18"/>
+      <c r="Y182" s="18"/>
+      <c r="Z182" s="19"/>
+      <c r="AA182" s="19"/>
+    </row>
+    <row r="183" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X183" s="18"/>
+      <c r="Y183" s="18"/>
+      <c r="Z183" s="19"/>
+      <c r="AA183" s="19"/>
+    </row>
+    <row r="184" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X184" s="18"/>
+      <c r="Y184" s="18"/>
+      <c r="Z184" s="19"/>
+      <c r="AA184" s="19"/>
+    </row>
+    <row r="185" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X185" s="18"/>
+      <c r="Y185" s="18"/>
+      <c r="Z185" s="19"/>
+      <c r="AA185" s="19"/>
+    </row>
+    <row r="186" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X186" s="18"/>
+      <c r="Y186" s="18"/>
+      <c r="Z186" s="19"/>
+      <c r="AA186" s="19"/>
+    </row>
+    <row r="187" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X187" s="18"/>
+      <c r="Y187" s="18"/>
+      <c r="Z187" s="19"/>
+      <c r="AA187" s="19"/>
+    </row>
+    <row r="188" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X188" s="18"/>
+      <c r="Y188" s="18"/>
+      <c r="Z188" s="19"/>
+      <c r="AA188" s="19"/>
+    </row>
+    <row r="189" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X189" s="18"/>
+      <c r="Y189" s="18"/>
+      <c r="Z189" s="19"/>
+      <c r="AA189" s="19"/>
+    </row>
+    <row r="190" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X190" s="18"/>
+      <c r="Y190" s="18"/>
+      <c r="Z190" s="19"/>
+      <c r="AA190" s="19"/>
+    </row>
+    <row r="191" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X191" s="18"/>
+      <c r="Y191" s="18"/>
+      <c r="Z191" s="19"/>
+      <c r="AA191" s="19"/>
+    </row>
+    <row r="192" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X192" s="18"/>
+      <c r="Y192" s="18"/>
+      <c r="Z192" s="19"/>
+      <c r="AA192" s="19"/>
+    </row>
+    <row r="193" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X193" s="18"/>
+      <c r="Y193" s="18"/>
+      <c r="Z193" s="19"/>
+      <c r="AA193" s="19"/>
+    </row>
+    <row r="194" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X194" s="18"/>
+      <c r="Y194" s="18"/>
+      <c r="Z194" s="19"/>
+      <c r="AA194" s="19"/>
+    </row>
+    <row r="195" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X195" s="18"/>
+      <c r="Y195" s="18"/>
+      <c r="Z195" s="19"/>
+      <c r="AA195" s="19"/>
+    </row>
+    <row r="196" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X196" s="18"/>
+      <c r="Y196" s="18"/>
+      <c r="Z196" s="19"/>
+      <c r="AA196" s="19"/>
+    </row>
+    <row r="197" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X197" s="18"/>
+      <c r="Y197" s="18"/>
+      <c r="Z197" s="19"/>
+      <c r="AA197" s="19"/>
+    </row>
+    <row r="198" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X198" s="18"/>
+      <c r="Y198" s="18"/>
+      <c r="Z198" s="19"/>
+      <c r="AA198" s="19"/>
+    </row>
+    <row r="199" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X199" s="18"/>
+      <c r="Y199" s="18"/>
+      <c r="Z199" s="19"/>
+      <c r="AA199" s="19"/>
+    </row>
+    <row r="200" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X200" s="18"/>
+      <c r="Y200" s="18"/>
+      <c r="Z200" s="19"/>
+      <c r="AA200" s="19"/>
+    </row>
+    <row r="201" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X201" s="18"/>
+      <c r="Y201" s="18"/>
+      <c r="Z201" s="19"/>
+      <c r="AA201" s="19"/>
+    </row>
+    <row r="202" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X202" s="18"/>
+      <c r="Y202" s="18"/>
+      <c r="Z202" s="19"/>
+      <c r="AA202" s="19"/>
+    </row>
+    <row r="203" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X203" s="18"/>
+      <c r="Y203" s="18"/>
+      <c r="Z203" s="19"/>
+      <c r="AA203" s="19"/>
+    </row>
+    <row r="204" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X204" s="18"/>
+      <c r="Y204" s="18"/>
+      <c r="Z204" s="19"/>
+      <c r="AA204" s="19"/>
+    </row>
+    <row r="205" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X205" s="18"/>
+      <c r="Y205" s="18"/>
+      <c r="Z205" s="19"/>
+      <c r="AA205" s="19"/>
+    </row>
+    <row r="206" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X206" s="18"/>
+      <c r="Y206" s="18"/>
+      <c r="Z206" s="19"/>
+      <c r="AA206" s="19"/>
+    </row>
+    <row r="207" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X207" s="18"/>
+      <c r="Y207" s="18"/>
+      <c r="Z207" s="19"/>
+      <c r="AA207" s="19"/>
+    </row>
+    <row r="208" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X208" s="18"/>
+      <c r="Y208" s="18"/>
+      <c r="Z208" s="19"/>
+      <c r="AA208" s="19"/>
+    </row>
+    <row r="209" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X209" s="18"/>
+      <c r="Y209" s="18"/>
+      <c r="Z209" s="19"/>
+      <c r="AA209" s="19"/>
+    </row>
+    <row r="210" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X210" s="18"/>
+      <c r="Y210" s="18"/>
+      <c r="Z210" s="19"/>
+      <c r="AA210" s="19"/>
+    </row>
+    <row r="211" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X211" s="18"/>
+      <c r="Y211" s="18"/>
+      <c r="Z211" s="19"/>
+      <c r="AA211" s="19"/>
+    </row>
+    <row r="212" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X212" s="18"/>
+      <c r="Y212" s="18"/>
+      <c r="Z212" s="19"/>
+      <c r="AA212" s="19"/>
+    </row>
+    <row r="213" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X213" s="18"/>
+      <c r="Y213" s="18"/>
+      <c r="Z213" s="19"/>
+      <c r="AA213" s="19"/>
+    </row>
+    <row r="214" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X214" s="18"/>
+      <c r="Y214" s="18"/>
+      <c r="Z214" s="19"/>
+      <c r="AA214" s="19"/>
+    </row>
+    <row r="215" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X215" s="18"/>
+      <c r="Y215" s="18"/>
+      <c r="Z215" s="19"/>
+      <c r="AA215" s="19"/>
+    </row>
+    <row r="216" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X216" s="18"/>
+      <c r="Y216" s="18"/>
+      <c r="Z216" s="19"/>
+      <c r="AA216" s="19"/>
+    </row>
+    <row r="217" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X217" s="18"/>
+      <c r="Y217" s="18"/>
+      <c r="Z217" s="19"/>
+      <c r="AA217" s="19"/>
+    </row>
+    <row r="218" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X218" s="18"/>
+      <c r="Y218" s="18"/>
+      <c r="Z218" s="19"/>
+      <c r="AA218" s="19"/>
+    </row>
+    <row r="219" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X219" s="18"/>
+      <c r="Y219" s="18"/>
+      <c r="Z219" s="19"/>
+      <c r="AA219" s="19"/>
+    </row>
+    <row r="220" spans="24:27" x14ac:dyDescent="0.3">
+      <c r="X220" s="18"/>
+      <c r="Y220" s="18"/>
+      <c r="Z220" s="19"/>
+      <c r="AA220" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
